--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD563039-0A53-4F13-A40E-26A024DAC5BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E89D0-4188-4363-8595-F35C99F2C900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5E89D0-4188-4363-8595-F35C99F2C900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDCD86-9502-4957-AE58-14BEC46BF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -364,6 +364,14 @@
   </si>
   <si>
     <t>Type,ExecuteDate,TableName,BatchNo,CustNo,FacmNo,BormNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDeleted</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已自連線環境刪除</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -981,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1168,7 +1176,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
-        <f t="shared" ref="A12:A21" si="0">A11+1</f>
+        <f t="shared" ref="A12:A22" si="0">A11+1</f>
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -1286,39 +1294,41 @@
       <c r="F17" s="18"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <f>A17+1</f>
         <v>9</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>17</v>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="18">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
@@ -1326,15 +1336,17 @@
         <v>11</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="E20" s="18">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
@@ -1342,15 +1354,31 @@
         <v>12</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="18"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E22" s="18">
         <v>6</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFDCD86-9502-4957-AE58-14BEC46BF7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05846F-EB8C-4575-9935-C3F36019174A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -240,10 +240,6 @@
   </si>
   <si>
     <t>執行批次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -363,15 +359,79 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Type,ExecuteDate,TableName,BatchNo,CustNo,FacmNo,BormNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>IsDeleted</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>已自連線環境刪除</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ONLINE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>連線環境</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+HISTORY:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>歷史環境</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataFrom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬運目標環境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>搬運來源環境</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type,DataFrom,DataTo,ExecuteDate,TableName,BatchNo,CustNo,FacmNo,BormNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Records</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NVARCHAR2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作資料筆數</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -989,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1040,7 +1100,7 @@
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="12"/>
@@ -1132,101 +1192,103 @@
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F10" s="18"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <f>A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
+      <c r="B11" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
-        <f t="shared" ref="A12:A22" si="0">A11+1</f>
+        <f>A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>39</v>
+      <c r="B12" s="25" t="s">
+        <v>56</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
-        <f t="shared" si="0"/>
+        <f>A12+1</f>
         <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-    </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
-        <v>5</v>
+        <f t="shared" ref="A14:A25" si="0">A13+1</f>
+        <v>6</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>33</v>
@@ -1237,148 +1299,213 @@
       <c r="F14" s="18"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" s="26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
+        <v>8</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
+        <f>A19+1</f>
+        <v>9</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <f>A20+1</f>
+        <v>10</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>10</v>
-      </c>
-      <c r="B19" s="16" t="s">
+      <c r="F21" s="18"/>
+      <c r="G21" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <f>A21+1</f>
+        <v>11</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D22" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="18">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
+      <c r="B23" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E25" s="18">
         <v>6</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
@@ -1,78 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC05846F-EB8C-4575-9935-C3F36019174A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF4F874-984C-4955-A491-935690FBC6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
   <si>
     <t>SEQ</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>讀取Key條件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>其他ORDER條件</t>
   </si>
   <si>
     <t>Uni</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Table</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>PrimaryKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FunNm</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ForeignKey1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -172,83 +163,83 @@
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>分類</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TableName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>資料表名稱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>30</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>歷史封存表紀錄檔</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>KeyID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TxArchiveTableLog</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BatchNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>執行批次</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Result</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>是否成功</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -264,7 +255,7 @@
       </rPr>
       <t>已結清並領取清償證明五年之交易明細</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -300,71 +291,71 @@
       </rPr>
       <t>否</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BormNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>執行結果說明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>額度</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>撥款序號</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>200</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ExecuteDate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>執行日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IsDeleted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已自連線環境刪除</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -400,51 +391,73 @@
       </rPr>
       <t>歷史環境</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DataTo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>DataFrom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>搬運目標環境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>搬運來源環境</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type,DataFrom,DataTo,ExecuteDate,TableName,BatchNo,CustNo,FacmNo,BormNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Records</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NVARCHAR2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>操作資料筆數</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>findLogs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type = ,AND TableName = ,AND ExecuteDate = ,AND DataFrom= ,AND DataTo = ,AND BatchNo = ,AND CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -525,6 +538,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -601,119 +622,137 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="8" xr:uid="{054EA912-2C18-4E3B-80BB-D5FC79BFCA6B}"/>
+    <cellStyle name="一般 2 2 3" xfId="4" xr:uid="{AAB29C59-77E0-45BC-8274-D066A2C162E8}"/>
+    <cellStyle name="一般 2 3" xfId="5" xr:uid="{4B2D5323-7F01-408F-8BF3-756C2484A763}"/>
+    <cellStyle name="一般 2 4" xfId="6" xr:uid="{18801F54-E1E6-4360-A8BE-64DE7E1FB637}"/>
+    <cellStyle name="一般 2 5" xfId="7" xr:uid="{51473416-2DA9-48A7-ACF2-0F134A6CAF1D}"/>
+    <cellStyle name="一般 2 6" xfId="3" xr:uid="{56DC6E4E-1835-4358-83AD-9D14EC144BFD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1049,463 +1088,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="20" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="1" max="1" width="5.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="22"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="10" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="23"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="23"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B7" s="28"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="13">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="18"/>
-      <c r="G9" s="17" t="s">
+      <c r="F10" s="16"/>
+      <c r="G10" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
-        <f>A9+1</f>
-        <v>2</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="15">
+    <row r="11" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13">
         <f>A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="B11" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15">
+    <row r="12" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13">
         <f>A11+1</f>
         <v>4</v>
       </c>
-      <c r="B12" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="15">
+      <c r="B12" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="13">
         <f>A12+1</f>
         <v>5</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="13">
+        <f>A13+1</f>
+        <v>6</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="15">
-        <f t="shared" ref="A14:A25" si="0">A13+1</f>
+      <c r="F14" s="16"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="13">
+        <f t="shared" ref="A15:A26" si="0">A14+1</f>
+        <v>7</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="16"/>
+      <c r="G16" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="13">
+        <v>5</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="19" t="s">
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <f t="shared" si="0"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
         <v>7</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="19" t="s">
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="13">
+        <v>8</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="13">
+        <f>A20+1</f>
+        <v>9</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="13">
+        <f>A21+1</f>
+        <v>10</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="17" t="s">
+      <c r="F22" s="16"/>
+      <c r="G22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-    </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>5</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>6</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>7</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
-    </row>
-    <row r="19" spans="1:7" s="21" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>8</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15">
-        <f>A19+1</f>
-        <v>9</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" s="21" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <f>A20+1</f>
-        <v>10</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="15">
-        <f>A21+1</f>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="13">
+        <f>A22+1</f>
         <v>11</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="15">
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E24" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="15">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="15">
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D26" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E26" s="16">
         <v>6</v>
       </c>
     </row>
@@ -1519,7 +1573,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1527,34 +1581,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="156.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF4F874-984C-4955-A491-935690FBC6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2E192-A11F-4EBF-92AB-A802B5CCAF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -437,6 +437,14 @@
   </si>
   <si>
     <t>Type = ,AND TableName = ,AND ExecuteDate = ,AND DataFrom= ,AND DataTo = ,AND BatchNo = ,AND CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Type = ,AND TableName = ,AND ExecuteDate = ,AND BatchNo = ,AND CustNo = ,AND FacmNo = ,AND BormNo = ,AND IsDeleted = </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL6971</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1581,11 +1589,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1615,6 +1623,14 @@
         <v>73</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxArchiveTableLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2E192-A11F-4EBF-92AB-A802B5CCAF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6E403C-B0E8-48D2-9B6A-ADA59D106834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -446,6 +446,10 @@
   <si>
     <t>findL6971</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type,TableName,ExecuteDate,BatchNo,CustNo,FacmNo,BormNo,IsDeleted</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1098,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1170,7 +1174,9 @@
         <v>4</v>
       </c>
       <c r="B5" s="29"/>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" s="11"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -1591,9 +1597,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
